--- a/calculations/results_2025_parameters/005_luminosity_estimates/natalia_2025_data/ion_lumi_1month_AA_2025.xlsx
+++ b/calculations/results_2025_parameters/005_luminosity_estimates/natalia_2025_data/ion_lumi_1month_AA_2025.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28919"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="125" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDE462B4-26A2-4D54-B69F-64AFF6640557}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB043D4E-C38E-4A21-83BC-8F7843698E45}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -517,13 +517,13 @@
         <v>11700</v>
       </c>
       <c r="C2" s="6">
-        <v>429.56333999999998</v>
+        <v>524.96738300000004</v>
       </c>
       <c r="D2" s="6">
         <v>2261.0129229999998</v>
       </c>
       <c r="E2" s="6">
-        <v>650.952045</v>
+        <v>803.06557899999996</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
